--- a/data/Subset1_WithDialogActs/Math JP4 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math JP4 transcript.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -597,12 +597,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1773,12 +1773,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1815,12 +1815,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2235,12 +2235,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2613,12 +2613,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3075,12 +3075,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3201,12 +3201,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3663,12 +3663,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3831,12 +3831,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3999,12 +3999,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4125,12 +4125,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4293,12 +4293,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4713,12 +4713,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5595,12 +5595,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5847,12 +5847,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6225,12 +6225,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6393,12 +6393,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7149,12 +7149,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7401,12 +7401,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7485,12 +7485,12 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7779,12 +7779,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8199,12 +8199,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8619,12 +8619,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8997,12 +8997,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9631,12 +9631,12 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10009,12 +10009,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10139,12 +10139,12 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10181,12 +10181,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10265,12 +10265,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11487,12 +11487,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12373,12 +12373,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12415,12 +12415,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12877,12 +12877,12 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13129,12 +13129,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14473,12 +14473,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14683,12 +14683,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14809,12 +14809,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15191,12 +15191,12 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15997,12 +15997,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16799,12 +16799,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16841,12 +16841,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16883,12 +16883,12 @@
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -16925,12 +16925,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -16967,12 +16967,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17009,12 +17009,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -17097,12 +17097,12 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17223,12 +17223,12 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17391,12 +17391,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17685,12 +17685,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -17727,12 +17727,12 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17853,12 +17853,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18189,12 +18189,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18231,12 +18231,12 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18273,12 +18273,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18483,12 +18483,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19449,12 +19449,12 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19533,12 +19533,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20163,12 +20163,12 @@
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20625,12 +20625,12 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20835,12 +20835,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21213,12 +21213,12 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21591,12 +21591,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21675,12 +21675,12 @@
       <c r="H505" t="inlineStr"/>
       <c r="I505" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21759,12 +21759,12 @@
       <c r="H507" t="inlineStr"/>
       <c r="I507" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21843,12 +21843,12 @@
       <c r="H509" t="inlineStr"/>
       <c r="I509" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22347,12 +22347,12 @@
       <c r="H521" t="inlineStr"/>
       <c r="I521" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22939,12 +22939,12 @@
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23195,12 +23195,12 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23237,12 +23237,12 @@
       <c r="H542" t="inlineStr"/>
       <c r="I542" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23363,12 +23363,12 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23405,12 +23405,12 @@
       <c r="H546" t="inlineStr"/>
       <c r="I546" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -23573,12 +23573,12 @@
       <c r="H550" t="inlineStr"/>
       <c r="I550" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23615,12 +23615,12 @@
       <c r="H551" t="inlineStr"/>
       <c r="I551" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23657,12 +23657,12 @@
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23909,12 +23909,12 @@
       <c r="H558" t="inlineStr"/>
       <c r="I558" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23993,12 +23993,12 @@
       <c r="H560" t="inlineStr"/>
       <c r="I560" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24077,12 +24077,12 @@
       <c r="H562" t="inlineStr"/>
       <c r="I562" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -24413,12 +24413,12 @@
       <c r="H570" t="inlineStr"/>
       <c r="I570" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24455,12 +24455,12 @@
       <c r="H571" t="inlineStr"/>
       <c r="I571" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24539,12 +24539,12 @@
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25089,12 +25089,12 @@
       <c r="H586" t="inlineStr"/>
       <c r="I586" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25425,12 +25425,12 @@
       <c r="H594" t="inlineStr"/>
       <c r="I594" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25803,12 +25803,12 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -25929,12 +25929,12 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26055,12 +26055,12 @@
       <c r="H609" t="inlineStr"/>
       <c r="I609" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26349,12 +26349,12 @@
       <c r="H616" t="inlineStr"/>
       <c r="I616" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26647,12 +26647,12 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27411,12 +27411,12 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27453,12 +27453,12 @@
       <c r="H642" t="inlineStr"/>
       <c r="I642" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27705,12 +27705,12 @@
       <c r="H648" t="inlineStr"/>
       <c r="I648" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27957,12 +27957,12 @@
       <c r="H654" t="inlineStr"/>
       <c r="I654" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29133,12 +29133,12 @@
       <c r="H682" t="inlineStr"/>
       <c r="I682" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29175,12 +29175,12 @@
       <c r="H683" t="inlineStr"/>
       <c r="I683" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29301,12 +29301,12 @@
       <c r="H686" t="inlineStr"/>
       <c r="I686" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29511,12 +29511,12 @@
       <c r="H691" t="inlineStr"/>
       <c r="I691" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29847,12 +29847,12 @@
       <c r="H699" t="inlineStr"/>
       <c r="I699" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29889,12 +29889,12 @@
       <c r="H700" t="inlineStr"/>
       <c r="I700" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30099,12 +30099,12 @@
       <c r="H705" t="inlineStr"/>
       <c r="I705" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30309,12 +30309,12 @@
       <c r="H710" t="inlineStr"/>
       <c r="I710" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30729,12 +30729,12 @@
       <c r="H720" t="inlineStr"/>
       <c r="I720" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30769,12 +30769,12 @@
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30811,12 +30811,12 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30895,12 +30895,12 @@
       <c r="H724" t="inlineStr"/>
       <c r="I724" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31021,12 +31021,12 @@
       <c r="H727" t="inlineStr"/>
       <c r="I727" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -31651,12 +31651,12 @@
       <c r="H742" t="inlineStr"/>
       <c r="I742" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31777,12 +31777,12 @@
       <c r="H745" t="inlineStr"/>
       <c r="I745" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31861,12 +31861,12 @@
       <c r="H747" t="inlineStr"/>
       <c r="I747" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -32071,12 +32071,12 @@
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32155,12 +32155,12 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32365,12 +32365,12 @@
       <c r="H759" t="inlineStr"/>
       <c r="I759" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32743,12 +32743,12 @@
       <c r="H768" t="inlineStr"/>
       <c r="I768" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J768" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32957,12 +32957,12 @@
       <c r="H773" t="inlineStr"/>
       <c r="I773" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33461,12 +33461,12 @@
       <c r="H785" t="inlineStr"/>
       <c r="I785" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J785" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33881,12 +33881,12 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J795" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34217,12 +34217,12 @@
       <c r="H803" t="inlineStr"/>
       <c r="I803" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J803" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -34721,12 +34721,12 @@
       <c r="H815" t="inlineStr"/>
       <c r="I815" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35057,12 +35057,12 @@
       <c r="H823" t="inlineStr"/>
       <c r="I823" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J823" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -35519,12 +35519,12 @@
       <c r="H834" t="inlineStr"/>
       <c r="I834" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J834" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -36947,12 +36947,12 @@
       <c r="H868" t="inlineStr"/>
       <c r="I868" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J868" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -37241,12 +37241,12 @@
       <c r="H875" t="inlineStr"/>
       <c r="I875" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J875" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37409,12 +37409,12 @@
       <c r="H879" t="inlineStr"/>
       <c r="I879" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J879" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -37959,12 +37959,12 @@
       <c r="H892" t="inlineStr"/>
       <c r="I892" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J892" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -38211,12 +38211,12 @@
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J898" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -38421,12 +38421,12 @@
       <c r="H903" t="inlineStr"/>
       <c r="I903" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J903" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38631,12 +38631,12 @@
       <c r="H908" t="inlineStr"/>
       <c r="I908" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -39177,12 +39177,12 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -39219,12 +39219,12 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -39261,12 +39261,12 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
